--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/EDA Indeed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB42CD3B-3581-475F-ABAE-322A9FBFA963}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94975F91-8424-42EB-9B13-8BBAB895D040}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -109,6 +109,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,6 +417,9 @@
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94975F91-8424-42EB-9B13-8BBAB895D040}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4E7AFA5-19CC-4917-84B7-F7CFB683D402}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -414,7 +415,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
   <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -459,4 +462,54 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBCF3FD-2250-48C7-ABDD-B129F7D80C8E}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4E7AFA5-19CC-4917-84B7-F7CFB683D402}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E855CC4-4E16-40C5-82D5-9DBF765FCDCB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,11 +413,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -426,36 +424,21 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E855CC4-4E16-40C5-82D5-9DBF765FCDCB}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CA1A563-FE44-488A-8AB8-AD6DAB336674}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,9 +413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -424,21 +426,36 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CA1A563-FE44-488A-8AB8-AD6DAB336674}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09E3457F-377A-4C2F-A9B7-2FBB73CD3280}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,11 +413,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -426,36 +424,11 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -469,7 +442,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/jobs-data-cleaning/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09E3457F-377A-4C2F-A9B7-2FBB73CD3280}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B00A27A-CFEC-47BE-A1D0-5EAEACEE9618}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,9 +413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -424,11 +426,36 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -442,7 +469,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A7"/>
+      <selection activeCell="A7" sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B00A27A-CFEC-47BE-A1D0-5EAEACEE9618}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EDC1E08-FFA4-4713-BE36-C9F4CA92E9D5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,11 +413,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -426,36 +424,16 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EDC1E08-FFA4-4713-BE36-C9F4CA92E9D5}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22C71741-836D-4DC7-8473-3F28517B8335}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -424,16 +424,36 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22C71741-836D-4DC7-8473-3F28517B8335}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5770BEF0-DABA-49C7-A7FA-739BB9ACADC6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -424,36 +424,21 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5770BEF0-DABA-49C7-A7FA-739BB9ACADC6}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2FEEF02-3EBC-4852-9ACB-617E75DFD29B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,9 +413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -424,21 +426,36 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2FEEF02-3EBC-4852-9ACB-617E75DFD29B}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D2F8317-00B1-4963-B03A-8ADCB414325B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,11 +413,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -426,36 +424,16 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D2F8317-00B1-4963-B03A-8ADCB414325B}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56C2514B-19A7-415B-A754-F220B24EB654}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56C2514B-19A7-415B-A754-F220B24EB654}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{389E3AFA-E630-483F-8F3C-FA3B6E3B483D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,27 +413,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -450,39 +445,39 @@
       <selection activeCell="A7" sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{389E3AFA-E630-483F-8F3C-FA3B6E3B483D}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4CF26A5-863F-44AB-96E4-3059E6C3D1AA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -424,11 +424,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -442,7 +457,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:A7"/>
+      <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4CF26A5-863F-44AB-96E4-3059E6C3D1AA}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{375F713F-C7C7-4F0B-AC2A-46F1924A937C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -417,32 +417,32 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -457,42 +457,42 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{375F713F-C7C7-4F0B-AC2A-46F1924A937C}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46DB79E2-2DB7-4CC8-89D6-6C928923EED0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,9 +413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -424,26 +426,36 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -457,7 +469,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46DB79E2-2DB7-4CC8-89D6-6C928923EED0}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{830EA2E3-85B7-4D9E-A761-D114DE245A74}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,11 +413,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -426,36 +424,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{830EA2E3-85B7-4D9E-A761-D114DE245A74}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B448AB0E-CED2-42C7-BAEB-F52523B0C1D8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,9 +413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -424,26 +426,36 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B448AB0E-CED2-42C7-BAEB-F52523B0C1D8}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D72CD6B-79F4-494C-A560-414D7E81A209}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,11 +413,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -426,36 +424,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D72CD6B-79F4-494C-A560-414D7E81A209}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73C72BCE-79DD-4883-9380-DF812F27776C}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8928" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,37 +413,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -460,39 +455,39 @@
       <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73C72BCE-79DD-4883-9380-DF812F27776C}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56B50971-714A-407B-9828-89FA44889E21}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8928" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8928" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,9 +413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -424,21 +426,6 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56B50971-714A-407B-9828-89FA44889E21}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F5FFB83-A68B-4562-A8E9-B73FA3145226}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8928" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,19 +413,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD6"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -442,39 +452,39 @@
       <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F5FFB83-A68B-4562-A8E9-B73FA3145226}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{377B32ED-2176-4CAE-8806-734C740E0357}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,11 +413,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -426,16 +424,6 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{377B32ED-2176-4CAE-8806-734C740E0357}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FF3A333-AA0F-48D4-AD7B-F3C84B415647}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,9 +413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -424,6 +426,11 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FF3A333-AA0F-48D4-AD7B-F3C84B415647}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E22968-A74E-4346-AEFB-AE9FCD082EAE}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11295" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,11 +426,36 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E22968-A74E-4346-AEFB-AE9FCD082EAE}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ABDDD98-3224-4D67-91AA-53AF061B0F4F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,49 +413,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -472,39 +447,39 @@
       <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ABDDD98-3224-4D67-91AA-53AF061B0F4F}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C515CB38-E985-497D-99BE-86BEE1EEA21D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,24 +413,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
@@ -447,39 +472,39 @@
       <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C515CB38-E985-497D-99BE-86BEE1EEA21D}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E96357BE-5E32-4FAE-A60A-900DFC4C4D7F}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,11 +413,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -426,36 +424,26 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E96357BE-5E32-4FAE-A60A-900DFC4C4D7F}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CA6BD05-689D-4134-82F5-44F23A11187C}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -415,34 +415,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -460,39 +462,39 @@
       <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CA6BD05-689D-4134-82F5-44F23A11187C}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B94F090-7752-4F25-9697-0FED67DE6A43}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,11 +413,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -426,26 +424,16 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B94F090-7752-4F25-9697-0FED67DE6A43}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F252D6B-6880-4DF4-B9E2-DE08CE41B9A7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
+    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8928" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,9 +413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -424,16 +426,21 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F252D6B-6880-4DF4-B9E2-DE08CE41B9A7}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C408F3AA-F3AE-4353-88CF-E8C960B1A692}"/>
   <bookViews>
-    <workbookView xWindow="2616" yWindow="2616" windowWidth="17280" windowHeight="8928" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -110,10 +110,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,11 +409,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -426,21 +420,11 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C408F3AA-F3AE-4353-88CF-E8C960B1A692}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D701D5D7-63C0-4D15-9219-FF8F56646914}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -110,6 +110,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,9 +413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -420,11 +426,36 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D701D5D7-63C0-4D15-9219-FF8F56646914}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53C8AF13-34DE-4B2E-8420-A12759E4BF97}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,36 +426,21 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53C8AF13-34DE-4B2E-8420-A12759E4BF97}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C102A4A4-6419-4675-8677-CBDB5D151E6C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,11 +413,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -426,21 +424,16 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C102A4A4-6419-4675-8677-CBDB5D151E6C}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32E37669-2BD7-43F8-9E8D-021B6FBDDFAB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,9 +413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -424,16 +426,36 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32E37669-2BD7-43F8-9E8D-021B6FBDDFAB}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DBA1481-D80D-415C-900B-A731DD29ECBA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,36 +426,21 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DBA1481-D80D-415C-900B-A731DD29ECBA}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60046B56-1FB2-45A0-9BE6-5DF4664B5E0C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,21 +426,36 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60046B56-1FB2-45A0-9BE6-5DF4664B5E0C}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AAF8548-7FB3-44AB-BEDF-32739C5DF6D9}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AAF8548-7FB3-44AB-BEDF-32739C5DF6D9}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21209CB9-9666-4215-AE24-CD5D9A8CEF95}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A7"/>
+      <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,36 +426,6 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21209CB9-9666-4215-AE24-CD5D9A8CEF95}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B43004B1-641C-4F36-B232-7B352F02BBAF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Data Scientist</t>
   </si>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9CEF0C-120B-4922-A393-BF1D535DEBFB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD6"/>
+      <selection sqref="A1:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,6 +426,36 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/job_search.xlsx
+++ b/job_search.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/72f513831c36f08e/Trabajos/Data Portfolio/jobs-data-cleaning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B43004B1-641C-4F36-B232-7B352F02BBAF}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="8_{1A9DB6E8-4DA2-441A-B14E-4903A1C4850D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E814D55F-EE8F-4047-8EB3-8D7224C2DC30}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F76CEBB5-C93F-41B8-A224-D33078250CEB}"/>
   </bookViews>
